--- a/Assets/DataManagement/DataManagementCards.xlsx
+++ b/Assets/DataManagement/DataManagementCards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhelm\Desktop\MonopolyClone\DataManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhelm\Desktop\MonopolyClone\Assets\DataManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4F113-B26B-491D-9D74-6766E30DB45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49768FAD-D317-4A3C-9D82-AD2D467F0953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="2190" windowWidth="19200" windowHeight="11710" xr2:uid="{C03D2061-8686-4E82-ADAA-1B8BE6EBB3AD}"/>
+    <workbookView xWindow="220" yWindow="2450" windowWidth="19200" windowHeight="11710" xr2:uid="{C03D2061-8686-4E82-ADAA-1B8BE6EBB3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="10">
   <si>
-    <t>Card Type</t>
+    <t>Node Number</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Node Name</t>
   </si>
   <si>
-    <t>Money</t>
+    <t>Node Color</t>
   </si>
   <si>
-    <t>Moves</t>
+    <t>Is Owned</t>
   </si>
   <si>
-    <t>Chance</t>
+    <t>Is Purchasable</t>
   </si>
   <si>
-    <t>Community</t>
+    <t>Node Buy Price</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>Node Sell Price</t>
+  </si>
+  <si>
+    <t>Node Type</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -408,19 +417,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F010B2F5-3031-4835-A6FB-33E8C9EBF1CE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,161 +446,1059 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
